--- a/docs/Release Plan2.xlsx
+++ b/docs/Release Plan2.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20412"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="917" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="14440" tabRatio="917"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BB$32</definedName>
+  </definedNames>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,23 +144,20 @@
     <t>UC 10.01.01 DownloadImage</t>
   </si>
   <si>
+    <t>UC 09.03.01 BrowseSearchHistory</t>
+  </si>
+  <si>
     <t>UC 09.01.01 AddToInventoryOffline</t>
   </si>
   <si>
     <t>UC 09.02.01 MakeTradesOffline</t>
-  </si>
-  <si>
-    <t>UC 09.03.01 BrowseSearchHistory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -161,22 +165,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,9 +230,21 @@
         <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -241,77 +252,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -370,232 +332,556 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5518518518518"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6814814814815"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:54">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>9</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:54">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>17</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>19</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>21</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>22</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>23</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>24</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>25</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>26</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>27</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>28</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>29</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>31</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>2</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>4</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>5</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>6</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>7</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>8</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>9</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2">
         <v>10</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2">
         <v>11</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2">
         <v>12</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2">
         <v>13</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2">
         <v>14</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2">
         <v>15</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2">
         <v>16</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2">
         <v>17</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2">
         <v>18</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2">
         <v>19</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2">
         <v>20</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2">
         <v>21</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2">
         <v>22</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2">
         <v>23</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2">
         <v>24</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2">
         <v>25</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2">
         <v>26</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2">
         <v>27</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2">
         <v>28</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2">
         <v>29</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:54">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1"/>
@@ -615,8 +901,8 @@
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:54">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
@@ -634,8 +920,8 @@
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:54">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1"/>
@@ -653,8 +939,8 @@
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:54">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1"/>
@@ -672,8 +958,8 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:54">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="3"/>
@@ -691,8 +977,8 @@
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:54">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="3"/>
@@ -710,8 +996,8 @@
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:54">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="3"/>
@@ -729,18 +1015,22 @@
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+    <row r="10" spans="1:54">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
@@ -749,9 +1039,9 @@
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
+    <row r="11" spans="1:54">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -769,10 +1059,14 @@
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" spans="1:54">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -785,9 +1079,9 @@
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
+    <row r="13" spans="1:54">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -801,9 +1095,9 @@
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>24</v>
+    <row r="14" spans="1:54">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -817,18 +1111,14 @@
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+    <row r="15" spans="1:54">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
@@ -837,9 +1127,9 @@
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
+    <row r="16" spans="1:54">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -857,9 +1147,9 @@
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>27</v>
+    <row r="17" spans="1:54">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -877,10 +1167,14 @@
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
+    <row r="18" spans="1:54">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -893,9 +1187,9 @@
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>29</v>
+    <row r="19" spans="1:54">
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -909,9 +1203,9 @@
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>30</v>
+    <row r="20" spans="1:54">
+      <c r="A20" t="s">
+        <v>29</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -925,17 +1219,14 @@
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
+    <row r="21" spans="1:54">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
@@ -944,17 +1235,23 @@
       <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
+    <row r="22" spans="1:54">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
@@ -963,9 +1260,9 @@
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>33</v>
+    <row r="23" spans="1:54">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -982,19 +1279,17 @@
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
+    <row r="24" spans="1:54">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
@@ -1003,19 +1298,17 @@
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
+    <row r="25" spans="1:54">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
@@ -1024,9 +1317,9 @@
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>36</v>
+    <row r="26" spans="1:54">
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
@@ -1045,9 +1338,9 @@
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>37</v>
+    <row r="27" spans="1:54">
+      <c r="A27" t="s">
+        <v>35</v>
       </c>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
@@ -1066,17 +1359,19 @@
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>38</v>
-      </c>
+    <row r="28" spans="1:54">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
@@ -1085,17 +1380,19 @@
       <c r="BA28" s="2"/>
       <c r="BB28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>39</v>
-      </c>
+    <row r="29" spans="1:54">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
@@ -1104,15 +1401,17 @@
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
+    <row r="30" spans="1:54">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
@@ -1121,15 +1420,17 @@
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
+    <row r="31" spans="1:54">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
@@ -1138,9 +1439,9 @@
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>42</v>
+    <row r="32" spans="1:54">
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
@@ -1156,12 +1457,12 @@
       <c r="BB32" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>